--- a/src/main/java/com/mycompany/n2_prog3_mateusalmeida/dados/DadosClinicaHospitalar.xlsx
+++ b/src/main/java/com/mycompany/n2_prog3_mateusalmeida/dados/DadosClinicaHospitalar.xlsx
@@ -420,7 +420,7 @@
     <t>Medico 4</t>
   </si>
   <si>
-    <t>09/07/1991</t>
+    <t>07/07/1991</t>
   </si>
   <si>
     <t>Neurologia,Psiquiatria</t>
@@ -565,282 +565,282 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="n" s="0">
         <v>15.0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" t="n" s="0">
         <v>315.0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2" t="n" s="0">
         <v>51646.0</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" t="s" s="0">
         <v>54</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="n" s="0">
         <v>39.0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" t="n" s="0">
         <v>631.0</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" t="n" s="0">
         <v>64886.0</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" t="s" s="0">
         <v>69</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="n" s="0">
         <v>3.0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="n" s="0">
         <v>19.0</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" t="n" s="0">
         <v>684.0</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" t="n" s="0">
         <v>6846.0</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" t="s" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="n" s="0">
         <v>4.0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="n" s="0">
         <v>23.0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" t="n" s="0">
         <v>684.0</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5" t="n" s="0">
         <v>46416.0</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" t="s" s="0">
         <v>107</v>
       </c>
     </row>
@@ -858,282 +858,282 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" t="s" s="0">
         <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="n" s="0">
         <v>4862.0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" t="n" s="0">
         <v>44.0</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="I2" t="b">
+      <c r="I2" t="b" s="0">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" t="n" s="0">
         <v>4862.0</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" t="n" s="0">
         <v>654168.0</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" t="s" s="0">
         <v>115</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="n" s="0">
         <v>6185.0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" t="n" s="0">
         <v>20.0</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="I3" t="b">
+      <c r="I3" t="b" s="0">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" t="n" s="0">
         <v>6185.0</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" t="n" s="0">
         <v>5166185.0</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" t="s" s="0">
         <v>122</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="n" s="0">
         <v>3.0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="n" s="0">
         <v>12.0</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>125</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" t="n" s="0">
         <v>44.0</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="I4" t="b">
+      <c r="I4" t="b" s="0">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" t="n" s="0">
         <v>12.0</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" t="n" s="0">
         <v>115684.0</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" t="s" s="0">
         <v>122</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="n" s="0">
         <v>4.0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>133</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="n" s="0">
         <v>124.0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" t="n" s="0">
         <v>30.0</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="I5" t="b">
+      <c r="I5" t="b" s="0">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" t="n" s="0">
         <v>124.0</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" t="n" s="0">
         <v>5.5554235E7</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" t="s" s="0">
         <v>137</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" t="s" s="0">
         <v>53</v>
       </c>
     </row>
@@ -1151,152 +1151,152 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" t="s" s="0">
         <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" t="n" s="0">
         <v>40.0</v>
       </c>
-      <c r="G2" t="b">
+      <c r="G2" t="b" s="0">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" t="n" s="0">
         <v>555.0</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" t="n" s="0">
         <v>68546.0</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" t="s" s="0">
         <v>142</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" t="n" s="0">
         <v>30.0</v>
       </c>
-      <c r="G3" t="b">
+      <c r="G3" t="b" s="0">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" t="n" s="0">
         <v>10.0</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" t="s" s="0">
         <v>146</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" t="n" s="0">
         <v>351861.0</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" t="s" s="0">
         <v>150</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" t="s" s="0">
         <v>122</v>
       </c>
     </row>
@@ -1314,255 +1314,255 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>151</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="G2" t="b">
+      <c r="G2" t="b" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>151</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="G3" t="b">
+      <c r="G3" t="b" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="n" s="0">
         <v>3.0</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" t="n" s="0">
         <v>3.0</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>151</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>156</v>
       </c>
-      <c r="G4" t="b">
+      <c r="G4" t="b" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="n" s="0">
         <v>4.0</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>158</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>159</v>
       </c>
-      <c r="G5" t="b">
+      <c r="G5" t="b" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="n" s="0">
         <v>5.0</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" t="n" s="0">
         <v>3.0</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>160</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>159</v>
       </c>
-      <c r="G6" t="b">
+      <c r="G6" t="b" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" t="n" s="0">
         <v>6.0</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" t="n" s="0">
         <v>4.0</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>160</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>159</v>
       </c>
-      <c r="G7" t="b">
+      <c r="G7" t="b" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" t="n" s="0">
         <v>7.0</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="n" s="0">
         <v>3.0</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>161</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="G8" t="b">
+      <c r="G8" t="b" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" t="n" s="0">
         <v>8.0</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="n" s="0">
         <v>3.0</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>161</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>162</v>
       </c>
-      <c r="G9" t="b">
+      <c r="G9" t="b" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" t="n" s="0">
         <v>9.0</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="n" s="0">
         <v>3.0</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>163</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>164</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="G10" t="b">
+      <c r="G10" t="b" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" t="n" s="0">
         <v>10.0</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="n" s="0">
         <v>4.0</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>163</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="G11" t="b">
+      <c r="G11" t="b" s="0">
         <v>0</v>
       </c>
     </row>
@@ -1580,138 +1580,138 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>53</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="n" s="0">
         <v>3.0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>68</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="n" s="0">
         <v>4.0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>85</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="n" s="0">
         <v>5.0</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>89</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" t="n" s="0">
         <v>6.0</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>92</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" t="n" s="0">
         <v>7.0</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>106</v>
       </c>
     </row>

--- a/src/main/java/com/mycompany/n2_prog3_mateusalmeida/dados/DadosClinicaHospitalar.xlsx
+++ b/src/main/java/com/mycompany/n2_prog3_mateusalmeida/dados/DadosClinicaHospitalar.xlsx
@@ -117,10 +117,10 @@
     <t>id Responsavel</t>
   </si>
   <si>
-    <t>Teste Paciente 1</t>
-  </si>
-  <si>
-    <t>21/01/2009</t>
+    <t>Teste Paciente Exec</t>
+  </si>
+  <si>
+    <t>20/01/2009</t>
   </si>
   <si>
     <t>F</t>
